--- a/Output.xlsx
+++ b/Output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="100">
   <si>
     <t>COURSE NAME</t>
   </si>
@@ -49,7 +49,7 @@
     <t>English</t>
   </si>
   <si>
-    <t>1167</t>
+    <t>1175</t>
   </si>
   <si>
     <t>Spanish</t>
@@ -61,79 +61,79 @@
     <t>Russian</t>
   </si>
   <si>
-    <t>408</t>
+    <t>413</t>
   </si>
   <si>
     <t>French</t>
   </si>
   <si>
-    <t>379</t>
+    <t>383</t>
   </si>
   <si>
     <t>Portuguese</t>
   </si>
   <si>
-    <t>283</t>
+    <t>289</t>
   </si>
   <si>
     <t>Arabic</t>
   </si>
   <si>
-    <t>140</t>
+    <t>150</t>
   </si>
   <si>
     <t>Chinese (China)</t>
   </si>
   <si>
-    <t>134</t>
+    <t>141</t>
   </si>
   <si>
     <t>Korean</t>
   </si>
   <si>
-    <t>104</t>
+    <t>106</t>
   </si>
   <si>
     <t>Vietnamese</t>
   </si>
   <si>
-    <t>83</t>
+    <t>86</t>
   </si>
   <si>
     <t>Portuguese (Brazil)</t>
   </si>
   <si>
-    <t>81</t>
+    <t>80</t>
   </si>
   <si>
     <t>German</t>
   </si>
   <si>
-    <t>80</t>
+    <t>79</t>
   </si>
   <si>
     <t>Japanese</t>
   </si>
   <si>
-    <t>71</t>
+    <t>68</t>
   </si>
   <si>
     <t>Turkish</t>
   </si>
   <si>
-    <t>43</t>
+    <t>44</t>
   </si>
   <si>
     <t>Chinese (Traditional)</t>
   </si>
   <si>
-    <t>31</t>
+    <t>33</t>
   </si>
   <si>
     <t>Persian</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>Greek</t>
@@ -148,18 +148,18 @@
     <t>Hindi</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Romanian</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>Italian</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Romanian</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -172,27 +172,27 @@
     <t>Catalan</t>
   </si>
   <si>
-    <t>11</t>
+    <t>10</t>
   </si>
   <si>
     <t>Dutch</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Thai</t>
   </si>
   <si>
     <t>Indonesian</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Mongolian</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>Mongolian</t>
-  </si>
-  <si>
     <t>Polish</t>
   </si>
   <si>
@@ -226,24 +226,24 @@
     <t>Telugu</t>
   </si>
   <si>
+    <t>Afrikaans</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Bengali</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Urdu</t>
   </si>
   <si>
-    <t>Afrikaans</t>
+    <t>Albanian</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Albanian</t>
-  </si>
-  <si>
     <t>Bulgarian</t>
   </si>
   <si>
@@ -280,7 +280,7 @@
     <t>TOTAL COURSES</t>
   </si>
   <si>
-    <t>3723</t>
+    <t>3771</t>
   </si>
   <si>
     <t>LEVEL NAME</t>
@@ -292,25 +292,28 @@
     <t>Intermediate</t>
   </si>
   <si>
-    <t>520</t>
+    <t>517</t>
   </si>
   <si>
     <t>Beginner</t>
   </si>
   <si>
-    <t>471</t>
+    <t>475</t>
   </si>
   <si>
     <t>Mixed</t>
   </si>
   <si>
-    <t>231</t>
+    <t>240</t>
   </si>
   <si>
     <t>Advanced</t>
   </si>
   <si>
-    <t>1302</t>
+    <t>76</t>
+  </si>
+  <si>
+    <t>1308</t>
   </si>
 </sst>
 </file>
@@ -605,31 +608,31 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
         <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
         <v>58</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="28">
@@ -637,7 +640,7 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -717,15 +720,15 @@
         <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="40">
@@ -733,7 +736,7 @@
         <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
@@ -741,7 +744,7 @@
         <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
@@ -749,7 +752,7 @@
         <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
@@ -757,7 +760,7 @@
         <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
@@ -765,7 +768,7 @@
         <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
@@ -773,7 +776,7 @@
         <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
@@ -781,7 +784,7 @@
         <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
@@ -870,7 +873,7 @@
         <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -878,7 +881,7 @@
         <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
